--- a/jobcard_template.xlsx
+++ b/jobcard_template.xlsx
@@ -380,7 +380,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -505,8 +505,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -515,6 +515,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -728,12 +732,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="B2:Z37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA10" activeCellId="0" sqref="AA10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -754,7 +758,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="3.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="1.71"/>
   </cols>
   <sheetData>
@@ -1534,16 +1538,16 @@
       <c r="Z30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
       <c r="N31" s="32"/>
@@ -1563,16 +1567,16 @@
       <c r="Z31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="32"/>
       <c r="M32" s="32"/>
       <c r="N32" s="32"/>
@@ -1592,16 +1596,16 @@
       <c r="Z32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
       <c r="L33" s="32" t="s">
         <v>49</v>
       </c>
@@ -1616,23 +1620,23 @@
       <c r="S33" s="33"/>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="33" t="s">
         <v>51</v>
       </c>
@@ -1648,31 +1652,31 @@
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="36"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
       <c r="V35" s="4" t="s">
         <v>54</v>
       </c>
@@ -1690,22 +1694,22 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="37" t="s">
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
       <c r="V36" s="4" t="s">
         <v>57</v>
       </c>
@@ -1746,7 +1750,7 @@
       <c r="Z37" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="178">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="V3:Z5"/>
     <mergeCell ref="D6:E6"/>
@@ -1884,12 +1888,13 @@
     <mergeCell ref="T29:U29"/>
     <mergeCell ref="V29:X29"/>
     <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="B30:K34"/>
+    <mergeCell ref="B30:K30"/>
     <mergeCell ref="L30:O30"/>
     <mergeCell ref="P30:S30"/>
     <mergeCell ref="T30:U30"/>
     <mergeCell ref="V30:X30"/>
     <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="B31:K34"/>
     <mergeCell ref="L31:O31"/>
     <mergeCell ref="P31:S31"/>
     <mergeCell ref="T31:U31"/>
@@ -1927,7 +1932,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/jobcard_template.xlsx
+++ b/jobcard_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t xml:space="preserve">SE2005____________</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t xml:space="preserve">CSR Signature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefan Ellis</t>
   </si>
   <si>
     <t xml:space="preserve">VAT</t>
@@ -380,7 +383,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -518,7 +521,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -542,6 +545,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -555,6 +562,49 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>338400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7786440" y="380880"/>
+          <a:ext cx="2113920" cy="571680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,7 +787,7 @@
   <dimension ref="B2:Z37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="AH12" activeCellId="0" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -769,10 +819,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V3" s="3" t="e">
-        <f aca="false">#VALUE!</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
@@ -1706,12 +1753,14 @@
       <c r="O36" s="38"/>
       <c r="P36" s="38"/>
       <c r="Q36" s="38"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
+      <c r="R36" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
       <c r="V36" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
@@ -1720,7 +1769,7 @@
     </row>
     <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1937,5 +1986,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>